--- a/Azure for DevOps Engineers.xlsx
+++ b/Azure for DevOps Engineers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://makecloudwork-my.sharepoint.com/personal/ashish_makecloudwork_com/Documents/DevelopIntelligence/Arkansas BCBS/Azure for DevOps Engineers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{F57E0D72-F714-457C-9819-5EF33FAE9759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CE0DF83-7292-42E7-8ABC-5A21C8BFAAA2}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{F57E0D72-F714-457C-9819-5EF33FAE9759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E27B20F7-215F-4ED6-8E6F-6D77AD5AC395}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Azure for DevOps Engineers" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <r>
       <rPr>
@@ -180,23 +180,32 @@
     <t>Adrian</t>
   </si>
   <si>
-    <t>Josh</t>
-  </si>
-  <si>
     <t>Srikanth</t>
   </si>
   <si>
     <t>Matheus</t>
   </si>
   <si>
-    <t>Jim</t>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>Raymond</t>
+  </si>
+  <si>
+    <t>usergroup1@makecloudwork.com</t>
+  </si>
+  <si>
+    <t>Yusuf</t>
+  </si>
+  <si>
+    <t>Yasir</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -306,6 +315,12 @@
       <color rgb="FFFFFFFF"/>
       <name val="Trebuchet MS"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -348,10 +363,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -407,12 +423,17 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -735,8 +756,8 @@
   </sheetPr>
   <dimension ref="A1:J974"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -764,13 +785,13 @@
     </row>
     <row r="2" spans="1:10" ht="120.75" customHeight="1">
       <c r="A2" s="5"/>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
       <c r="G2" s="6"/>
       <c r="H2" s="7"/>
     </row>
@@ -818,7 +839,9 @@
       <c r="E5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="19"/>
+      <c r="F5" s="26" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="12">
@@ -959,8 +982,8 @@
       <c r="B15" s="16">
         <v>12</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>37</v>
+      <c r="C15" s="25" t="s">
+        <v>43</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>15</v>
@@ -975,7 +998,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>16</v>
@@ -990,7 +1013,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>17</v>
@@ -1005,7 +1028,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>18</v>
@@ -1021,7 +1044,9 @@
       <c r="B19" s="16">
         <v>16</v>
       </c>
-      <c r="C19" s="17"/>
+      <c r="C19" s="25" t="s">
+        <v>39</v>
+      </c>
       <c r="D19" s="18" t="s">
         <v>19</v>
       </c>
@@ -1036,7 +1061,9 @@
       <c r="B20" s="12">
         <v>17</v>
       </c>
-      <c r="C20" s="13"/>
+      <c r="C20" s="13" t="s">
+        <v>40</v>
+      </c>
       <c r="D20" s="14" t="s">
         <v>20</v>
       </c>
@@ -1103,7 +1130,9 @@
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="16"/>
-      <c r="C29" s="22"/>
+      <c r="C29" s="22" t="s">
+        <v>42</v>
+      </c>
       <c r="D29" s="18"/>
     </row>
     <row r="30" spans="2:10" ht="12.75">
@@ -3947,6 +3976,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F5" r:id="rId2" xr:uid="{1B6EB19D-BA7C-4084-BA50-3CA66AA03F99}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
